--- a/pandas.xlsx
+++ b/pandas.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ACD1D8-756E-4A44-81CE-EB309D6EB6BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB9A675-E8C5-4361-9F4F-F70FBDB272D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="rand" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -340,7 +340,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -351,7 +351,7 @@
       </c>
       <c r="B1">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>53</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -360,7 +360,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B37" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -369,7 +369,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -378,7 +378,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -387,7 +387,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +396,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -405,7 +405,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -414,7 +414,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -432,7 +432,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,7 +441,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,7 +513,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
